--- a/data/output/Pedido_Semana_06_13022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_utiles_jardin.xlsx
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>37.57</v>
+        <v>12.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>22.54</v>
+        <v>7.51</v>
       </c>
       <c r="O3" s="7" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>4202010001</t>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>13.38</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>4602020008</t>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" hidden="1">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>4403020021</t>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>4401020003</t>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>191.9</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>115.14</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>200</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" hidden="1">
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>4605010007</t>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>213.75</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>128.25</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>4105080009</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>4105080012</t>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>25.58</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>4101090011</t>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>686.34€</t>
+          <t>124.76€</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
